--- a/DataAggregator/02_Documents/TestReport/RE_VDA_TestReport.xlsx
+++ b/DataAggregator/02_Documents/TestReport/RE_VDA_TestReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RE_Project\Git_SOM_QCS2290\SOM-QCM2290\DataAggregator\02_Documents\TestReport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\RE_Project\notes_videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06140C7D-B027-42A8-BDE6-490779438CF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4938BE90-E0E7-4652-8F8D-B391A7BF60AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="591" activeTab="2" xr2:uid="{BE04A30C-5183-428C-B69A-BDDA89CA5B6A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="591" xr2:uid="{BE04A30C-5183-428C-B69A-BDDA89CA5B6A}"/>
   </bookViews>
   <sheets>
     <sheet name="CoverLetter" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="612">
   <si>
     <t>Name of Document</t>
   </si>
@@ -2539,6 +2539,160 @@
   </si>
   <si>
     <t>TestCases-2</t>
+  </si>
+  <si>
+    <t>TC202</t>
+  </si>
+  <si>
+    <t>TC203</t>
+  </si>
+  <si>
+    <t>TC204</t>
+  </si>
+  <si>
+    <t>TC205</t>
+  </si>
+  <si>
+    <t>TC206</t>
+  </si>
+  <si>
+    <t>TC207</t>
+  </si>
+  <si>
+    <t>TC208</t>
+  </si>
+  <si>
+    <t>TC209</t>
+  </si>
+  <si>
+    <t>TC210</t>
+  </si>
+  <si>
+    <t>0x7A1</t>
+  </si>
+  <si>
+    <t>RSC_Diag_Req</t>
+  </si>
+  <si>
+    <t>0x7A2</t>
+  </si>
+  <si>
+    <t>RSC_Diag_Resp</t>
+  </si>
+  <si>
+    <t>0x153</t>
+  </si>
+  <si>
+    <t>SOM_HeartBeat_Failure,
+SOM_Status,
+Passcode_Authentication</t>
+  </si>
+  <si>
+    <t>1,
+15,
+1</t>
+  </si>
+  <si>
+    <t>TC211</t>
+  </si>
+  <si>
+    <t>TC212</t>
+  </si>
+  <si>
+    <t>TC213</t>
+  </si>
+  <si>
+    <t>TC214</t>
+  </si>
+  <si>
+    <t>TC215</t>
+  </si>
+  <si>
+    <t>0x70F</t>
+  </si>
+  <si>
+    <t>VCU_TimeStamp</t>
+  </si>
+  <si>
+    <t>0xA1</t>
+  </si>
+  <si>
+    <t>TC216</t>
+  </si>
+  <si>
+    <t>TC217</t>
+  </si>
+  <si>
+    <t>TC218</t>
+  </si>
+  <si>
+    <t>TC219</t>
+  </si>
+  <si>
+    <t>VCU_to_MCU_Seed</t>
+  </si>
+  <si>
+    <t>0x169</t>
+  </si>
+  <si>
+    <t>Cruise_Control_Req,
+Hill_Hold_Command,
+Cruise_Set_Speed,
+Vehicle_speed_kmph</t>
+  </si>
+  <si>
+    <t>3,
+0,
+1,
+6553.5</t>
+  </si>
+  <si>
+    <t>846445342 (in between min and max)</t>
+  </si>
+  <si>
+    <t>67423624624 (in between min and max)</t>
+  </si>
+  <si>
+    <t>1,
+15,
+1 (Max value)</t>
+  </si>
+  <si>
+    <t>4294967295 (Max value)</t>
+  </si>
+  <si>
+    <t>3,
+0,
+1,
+6553.5 (Max value)</t>
+  </si>
+  <si>
+    <t>1,
+8,
+1 (in between min and max)</t>
+  </si>
+  <si>
+    <t>1,
+8,
+1</t>
+  </si>
+  <si>
+    <t>786353564 (in between min and max)</t>
+  </si>
+  <si>
+    <t>6353526(in between min and max)</t>
+  </si>
+  <si>
+    <t>2,
+0,
+1,
+5437 (in between min and max)</t>
+  </si>
+  <si>
+    <t>2,
+0,
+1,
+5437</t>
   </si>
 </sst>
 </file>
@@ -2708,7 +2862,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -2869,6 +3023,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3187,8 +3350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB7A20A-1C32-4B0D-9A23-987177EC026A}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScale="65" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3295,7 +3458,7 @@
         <v>568</v>
       </c>
       <c r="B13" s="60">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="C13" s="61"/>
       <c r="D13" s="62"/>
@@ -3305,7 +3468,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="54">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="C14" s="54"/>
       <c r="D14" s="54"/>
@@ -3435,7 +3598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AC9DBD2-D09A-4384-86A9-3EDE4471A0F4}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -3596,10 +3759,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6D7BEC8-0071-46E1-A947-C188422EB778}">
-  <dimension ref="A1:JF202"/>
+  <dimension ref="A1:JF220"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView topLeftCell="A212" zoomScale="84" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C219" sqref="C219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3610,7 +3773,7 @@
     <col min="4" max="4" width="14.54296875" customWidth="1"/>
     <col min="5" max="5" width="34" customWidth="1"/>
     <col min="6" max="6" width="35.54296875" customWidth="1"/>
-    <col min="7" max="7" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.90625" customWidth="1"/>
     <col min="8" max="8" width="12.6328125" customWidth="1"/>
     <col min="9" max="10" width="10.08984375" customWidth="1"/>
   </cols>
@@ -10442,6 +10605,546 @@
       </c>
       <c r="J202" s="18"/>
     </row>
+    <row r="203" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A203" s="15" t="s">
+        <v>569</v>
+      </c>
+      <c r="B203" s="63" t="s">
+        <v>578</v>
+      </c>
+      <c r="C203" s="64" t="s">
+        <v>579</v>
+      </c>
+      <c r="D203" s="21">
+        <v>0</v>
+      </c>
+      <c r="E203" s="65">
+        <v>1.8446744073709601E+19</v>
+      </c>
+      <c r="F203" s="21">
+        <v>1</v>
+      </c>
+      <c r="G203" s="65">
+        <v>1</v>
+      </c>
+      <c r="H203" s="65">
+        <v>1</v>
+      </c>
+      <c r="I203" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J203" s="18"/>
+    </row>
+    <row r="204" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A204" s="15" t="s">
+        <v>570</v>
+      </c>
+      <c r="B204" s="63" t="s">
+        <v>578</v>
+      </c>
+      <c r="C204" s="64" t="s">
+        <v>579</v>
+      </c>
+      <c r="D204" s="21">
+        <v>0</v>
+      </c>
+      <c r="E204" s="65">
+        <v>1.8446744073709601E+19</v>
+      </c>
+      <c r="F204" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="G204" s="65">
+        <v>1.8446744073709601E+19</v>
+      </c>
+      <c r="H204" s="65">
+        <v>1.8446744073709601E+19</v>
+      </c>
+      <c r="I204" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J204" s="18"/>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A205" s="15" t="s">
+        <v>571</v>
+      </c>
+      <c r="B205" s="63" t="s">
+        <v>578</v>
+      </c>
+      <c r="C205" s="64" t="s">
+        <v>579</v>
+      </c>
+      <c r="D205" s="21">
+        <v>0</v>
+      </c>
+      <c r="E205" s="65">
+        <v>1.8446744073709601E+19</v>
+      </c>
+      <c r="F205" s="18" t="s">
+        <v>601</v>
+      </c>
+      <c r="G205" s="65">
+        <v>846445342</v>
+      </c>
+      <c r="H205" s="65">
+        <v>846445342</v>
+      </c>
+      <c r="I205" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J205" s="18"/>
+    </row>
+    <row r="206" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A206" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="B206" s="63" t="s">
+        <v>580</v>
+      </c>
+      <c r="C206" s="64" t="s">
+        <v>581</v>
+      </c>
+      <c r="D206" s="21">
+        <v>0</v>
+      </c>
+      <c r="E206" s="65">
+        <v>1.8446744073709601E+19</v>
+      </c>
+      <c r="F206" s="21">
+        <v>1</v>
+      </c>
+      <c r="G206" s="65">
+        <v>1</v>
+      </c>
+      <c r="H206" s="65">
+        <v>1</v>
+      </c>
+      <c r="I206" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J206" s="18"/>
+    </row>
+    <row r="207" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A207" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="B207" s="63" t="s">
+        <v>580</v>
+      </c>
+      <c r="C207" s="64" t="s">
+        <v>581</v>
+      </c>
+      <c r="D207" s="21">
+        <v>0</v>
+      </c>
+      <c r="E207" s="65">
+        <v>1.8446744073709601E+19</v>
+      </c>
+      <c r="F207" s="65" t="s">
+        <v>438</v>
+      </c>
+      <c r="G207" s="65">
+        <v>1.8446744073709601E+19</v>
+      </c>
+      <c r="H207" s="65">
+        <v>1.8446744073709601E+19</v>
+      </c>
+      <c r="I207" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J207" s="18"/>
+    </row>
+    <row r="208" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A208" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="B208" s="63" t="s">
+        <v>580</v>
+      </c>
+      <c r="C208" s="64" t="s">
+        <v>581</v>
+      </c>
+      <c r="D208" s="21">
+        <v>0</v>
+      </c>
+      <c r="E208" s="65">
+        <v>1.8446744073709601E+19</v>
+      </c>
+      <c r="F208" s="65" t="s">
+        <v>602</v>
+      </c>
+      <c r="G208" s="65">
+        <v>67423624624</v>
+      </c>
+      <c r="H208" s="65">
+        <v>67423624624</v>
+      </c>
+      <c r="I208" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J208" s="18"/>
+    </row>
+    <row r="209" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A209" s="15" t="s">
+        <v>575</v>
+      </c>
+      <c r="B209" s="63" t="s">
+        <v>582</v>
+      </c>
+      <c r="C209" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="D209" s="21">
+        <v>0</v>
+      </c>
+      <c r="E209" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="F209" s="21">
+        <v>1</v>
+      </c>
+      <c r="G209" s="65">
+        <v>1</v>
+      </c>
+      <c r="H209" s="65">
+        <v>1</v>
+      </c>
+      <c r="I209" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J209" s="18"/>
+    </row>
+    <row r="210" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A210" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B210" s="63" t="s">
+        <v>582</v>
+      </c>
+      <c r="C210" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="D210" s="21">
+        <v>0</v>
+      </c>
+      <c r="E210" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="F210" s="39" t="s">
+        <v>603</v>
+      </c>
+      <c r="G210" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="H210" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="I210" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J210" s="18"/>
+    </row>
+    <row r="211" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A211" s="15" t="s">
+        <v>577</v>
+      </c>
+      <c r="B211" s="63" t="s">
+        <v>582</v>
+      </c>
+      <c r="C211" s="39" t="s">
+        <v>583</v>
+      </c>
+      <c r="D211" s="21">
+        <v>0</v>
+      </c>
+      <c r="E211" s="39" t="s">
+        <v>584</v>
+      </c>
+      <c r="F211" s="39" t="s">
+        <v>606</v>
+      </c>
+      <c r="G211" s="39" t="s">
+        <v>607</v>
+      </c>
+      <c r="H211" s="39" t="s">
+        <v>607</v>
+      </c>
+      <c r="I211" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J211" s="18"/>
+    </row>
+    <row r="212" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A212" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="B212" s="63" t="s">
+        <v>590</v>
+      </c>
+      <c r="C212" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="D212" s="21">
+        <v>0</v>
+      </c>
+      <c r="E212" s="21">
+        <v>1.8446744073709601E+19</v>
+      </c>
+      <c r="F212" s="21">
+        <v>1</v>
+      </c>
+      <c r="G212" s="65">
+        <v>1</v>
+      </c>
+      <c r="H212" s="65">
+        <v>1</v>
+      </c>
+      <c r="I212" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J212" s="18"/>
+    </row>
+    <row r="213" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A213" s="15" t="s">
+        <v>586</v>
+      </c>
+      <c r="B213" s="63" t="s">
+        <v>590</v>
+      </c>
+      <c r="C213" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="D213" s="21">
+        <v>0</v>
+      </c>
+      <c r="E213" s="21">
+        <v>1.8446744073709601E+19</v>
+      </c>
+      <c r="F213" s="21" t="s">
+        <v>438</v>
+      </c>
+      <c r="G213" s="21">
+        <v>1.8446744073709601E+19</v>
+      </c>
+      <c r="H213" s="21">
+        <v>1.8446744073709601E+19</v>
+      </c>
+      <c r="I213" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J213" s="18"/>
+    </row>
+    <row r="214" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A214" s="15" t="s">
+        <v>587</v>
+      </c>
+      <c r="B214" s="63" t="s">
+        <v>590</v>
+      </c>
+      <c r="C214" s="39" t="s">
+        <v>591</v>
+      </c>
+      <c r="D214" s="21">
+        <v>0</v>
+      </c>
+      <c r="E214" s="21">
+        <v>1.8446744073709601E+19</v>
+      </c>
+      <c r="F214" s="65" t="s">
+        <v>608</v>
+      </c>
+      <c r="G214" s="65">
+        <v>786353564</v>
+      </c>
+      <c r="H214" s="65">
+        <v>786353564</v>
+      </c>
+      <c r="I214" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J214" s="18"/>
+    </row>
+    <row r="215" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A215" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B215" s="63" t="s">
+        <v>592</v>
+      </c>
+      <c r="C215" s="39" t="s">
+        <v>597</v>
+      </c>
+      <c r="D215" s="21">
+        <v>0</v>
+      </c>
+      <c r="E215" s="21">
+        <v>4294967295</v>
+      </c>
+      <c r="F215" s="21">
+        <v>1</v>
+      </c>
+      <c r="G215" s="65">
+        <v>1</v>
+      </c>
+      <c r="H215" s="65">
+        <v>1</v>
+      </c>
+      <c r="I215" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J215" s="18"/>
+    </row>
+    <row r="216" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A216" s="15" t="s">
+        <v>589</v>
+      </c>
+      <c r="B216" s="63" t="s">
+        <v>592</v>
+      </c>
+      <c r="C216" s="39" t="s">
+        <v>597</v>
+      </c>
+      <c r="D216" s="21">
+        <v>0</v>
+      </c>
+      <c r="E216" s="21">
+        <v>4294967295</v>
+      </c>
+      <c r="F216" s="21" t="s">
+        <v>604</v>
+      </c>
+      <c r="G216" s="21">
+        <v>4294967295</v>
+      </c>
+      <c r="H216" s="21">
+        <v>4294967295</v>
+      </c>
+      <c r="I216" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J216" s="18"/>
+    </row>
+    <row r="217" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A217" s="15" t="s">
+        <v>593</v>
+      </c>
+      <c r="B217" s="63" t="s">
+        <v>592</v>
+      </c>
+      <c r="C217" s="39" t="s">
+        <v>597</v>
+      </c>
+      <c r="D217" s="21">
+        <v>0</v>
+      </c>
+      <c r="E217" s="21">
+        <v>4294967295</v>
+      </c>
+      <c r="F217" s="21" t="s">
+        <v>609</v>
+      </c>
+      <c r="G217" s="21">
+        <v>6353526</v>
+      </c>
+      <c r="H217" s="21">
+        <v>6353526</v>
+      </c>
+      <c r="I217" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J217" s="18"/>
+    </row>
+    <row r="218" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A218" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="B218" s="63" t="s">
+        <v>598</v>
+      </c>
+      <c r="C218" s="39" t="s">
+        <v>599</v>
+      </c>
+      <c r="D218" s="21">
+        <v>0</v>
+      </c>
+      <c r="E218" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="F218" s="21">
+        <v>1</v>
+      </c>
+      <c r="G218" s="21">
+        <v>1</v>
+      </c>
+      <c r="H218" s="21">
+        <v>1</v>
+      </c>
+      <c r="I218" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J218" s="18"/>
+    </row>
+    <row r="219" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A219" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="B219" s="63" t="s">
+        <v>598</v>
+      </c>
+      <c r="C219" s="39" t="s">
+        <v>599</v>
+      </c>
+      <c r="D219" s="21">
+        <v>0</v>
+      </c>
+      <c r="E219" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="F219" s="39" t="s">
+        <v>605</v>
+      </c>
+      <c r="G219" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="H219" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="I219" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J219" s="18"/>
+    </row>
+    <row r="220" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A220" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="B220" s="63" t="s">
+        <v>598</v>
+      </c>
+      <c r="C220" s="39" t="s">
+        <v>599</v>
+      </c>
+      <c r="D220" s="21">
+        <v>0</v>
+      </c>
+      <c r="E220" s="39" t="s">
+        <v>600</v>
+      </c>
+      <c r="F220" s="39" t="s">
+        <v>610</v>
+      </c>
+      <c r="G220" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="H220" s="39" t="s">
+        <v>611</v>
+      </c>
+      <c r="I220" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J220" s="18"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
